--- a/data/MF201601_Quiz.xlsx
+++ b/data/MF201601_Quiz.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Park Min Suk\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Math_Foundations/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="31800" yWindow="3100" windowWidth="20500" windowHeight="13180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$3:$G$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -318,66 +324,66 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,30 +430,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="기본" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -508,9 +514,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -543,9 +549,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -727,65 +733,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2009</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11">
+        <v>100</v>
+      </c>
+      <c r="F4" s="14">
         <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2012</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="11">
-        <v>85</v>
-      </c>
-      <c r="F4" s="18">
-        <v>17</v>
       </c>
       <c r="G4" s="2">
         <f>E4*0.3</f>
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>41</v>
@@ -795,25 +801,25 @@
         <v>73.952380952380949</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C5" s="9">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E5" s="11">
-        <v>75</v>
-      </c>
-      <c r="F5" s="18">
         <v>25</v>
+      </c>
+      <c r="F5" s="14">
+        <v>41</v>
       </c>
       <c r="G5" s="2">
         <f>E5*0.3</f>
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>43</v>
@@ -823,25 +829,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C6" s="9">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E6" s="11">
-        <v>68</v>
-      </c>
-      <c r="F6" s="17">
-        <v>29</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="15">
+        <v>20</v>
       </c>
       <c r="G6" s="2">
         <f>E6*0.3</f>
-        <v>20.399999999999999</v>
+        <v>24</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>44</v>
@@ -851,25 +857,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" s="9">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E7" s="11">
-        <v>100</v>
-      </c>
-      <c r="F7" s="17">
-        <v>1</v>
+        <v>85</v>
+      </c>
+      <c r="F7" s="15">
+        <v>17</v>
       </c>
       <c r="G7" s="2">
         <f>E7*0.3</f>
-        <v>30</v>
+        <v>25.5</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>51</v>
@@ -879,381 +885,381 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="11">
-        <v>85</v>
-      </c>
-      <c r="F8" s="18">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <f>E8*0.3</f>
-        <v>25.5</v>
+        <v>30</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9">
-        <v>2015</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" s="11">
-        <v>30</v>
-      </c>
-      <c r="F9" s="18">
-        <v>39</v>
+        <v>60</v>
+      </c>
+      <c r="F9" s="14">
+        <v>33</v>
       </c>
       <c r="G9" s="2">
         <f>E9*0.3</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <v>2013</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" s="11">
-        <v>100</v>
-      </c>
-      <c r="F10" s="17">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="F10" s="14">
+        <v>35</v>
       </c>
       <c r="G10" s="2">
         <f>E10*0.3</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="B11" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
-        <v>8</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2015</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>2</v>
-      </c>
       <c r="E11" s="11">
-        <v>40</v>
-      </c>
-      <c r="F11" s="17">
-        <v>37</v>
+        <v>90</v>
+      </c>
+      <c r="F11" s="14">
+        <v>11</v>
       </c>
       <c r="G11" s="2">
         <f>E11*0.3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C12" s="9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="11">
-        <v>80</v>
-      </c>
-      <c r="F12" s="18">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="F12" s="14">
+        <v>11</v>
       </c>
       <c r="G12" s="2">
         <f>E12*0.3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="11">
-        <v>65</v>
-      </c>
-      <c r="F13" s="18">
-        <v>30</v>
+        <v>75</v>
+      </c>
+      <c r="F13" s="15">
+        <v>25</v>
       </c>
       <c r="G13" s="2">
         <f>E13*0.3</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C14" s="9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E14" s="11">
-        <v>100</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F14" s="15">
+        <v>20</v>
       </c>
       <c r="G14" s="2">
         <f>E14*0.3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9">
         <v>2013</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="11">
-        <v>60</v>
-      </c>
-      <c r="F15" s="17">
-        <v>33</v>
+        <v>65</v>
+      </c>
+      <c r="F15" s="15">
+        <v>30</v>
       </c>
       <c r="G15" s="2">
         <f>E15*0.3</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="17.25" x14ac:dyDescent="0.3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C16" s="9">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E16" s="11">
-        <v>95</v>
-      </c>
-      <c r="F16" s="17">
-        <v>9</v>
+        <v>65</v>
+      </c>
+      <c r="F16" s="14">
+        <v>30</v>
       </c>
       <c r="G16" s="2">
         <f>E16*0.3</f>
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C17" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E17" s="11">
-        <v>30</v>
-      </c>
-      <c r="F17" s="18">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="F17" s="15">
+        <v>35</v>
       </c>
       <c r="G17" s="2">
         <f>E17*0.3</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C18" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E18" s="11">
-        <v>90</v>
-      </c>
-      <c r="F18" s="17">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="15">
+        <v>42</v>
       </c>
       <c r="G18" s="2">
         <f>E18*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="9">
-        <v>2015</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="E19" s="11">
-        <v>50</v>
-      </c>
-      <c r="F19" s="17">
-        <v>34</v>
+        <v>75</v>
+      </c>
+      <c r="F19" s="15">
+        <v>25</v>
       </c>
       <c r="G19" s="2">
         <f>E19*0.3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C20" s="9">
         <v>2015</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="E20" s="11">
-        <v>80</v>
-      </c>
-      <c r="F20" s="17">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="F20" s="14">
+        <v>29</v>
       </c>
       <c r="G20" s="2">
         <f>E20*0.3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C21" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" s="11">
-        <v>45</v>
-      </c>
-      <c r="F21" s="17">
-        <v>35</v>
+        <v>100</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <f>E21*0.3</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B22" s="8">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C22" s="9">
         <v>2015</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E22" s="11">
-        <v>93</v>
-      </c>
-      <c r="F22" s="17">
-        <v>10</v>
+        <v>85</v>
+      </c>
+      <c r="F22" s="15">
+        <v>17</v>
       </c>
       <c r="G22" s="2">
         <f>E22*0.3</f>
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B23" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C23" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D23" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="11">
         <v>30</v>
       </c>
-      <c r="E23" s="11">
-        <v>90</v>
-      </c>
-      <c r="F23" s="17">
-        <v>11</v>
+      <c r="F23" s="15">
+        <v>39</v>
       </c>
       <c r="G23" s="2">
         <f>E23*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B24" s="8">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C24" s="9">
         <v>2015</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>90</v>
-      </c>
-      <c r="F24" s="18">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="F24" s="14">
+        <v>37</v>
       </c>
       <c r="G24" s="2">
         <f>E24*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B25" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C25" s="9">
         <v>2015</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" s="11">
         <v>80</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="15">
         <v>20</v>
       </c>
       <c r="G25" s="2">
@@ -1261,356 +1267,356 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B26" s="8">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C26" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E26" s="11">
-        <v>90</v>
-      </c>
-      <c r="F26" s="17">
-        <v>11</v>
+        <v>65</v>
+      </c>
+      <c r="F26" s="15">
+        <v>30</v>
       </c>
       <c r="G26" s="2">
         <f>E26*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B27" s="8">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C27" s="9">
         <v>2015</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E27" s="11">
-        <v>85</v>
-      </c>
-      <c r="F27" s="17">
-        <v>17</v>
+        <v>100</v>
+      </c>
+      <c r="F27" s="15">
+        <v>1</v>
       </c>
       <c r="G27" s="2">
         <f>E27*0.3</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B28" s="8">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C28" s="9">
         <v>2015</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E28" s="11">
-        <v>100</v>
-      </c>
-      <c r="F28" s="17">
-        <v>1</v>
+        <v>95</v>
+      </c>
+      <c r="F28" s="14">
+        <v>9</v>
       </c>
       <c r="G28" s="2">
         <f>E28*0.3</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B29" s="8">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <v>2015</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="11">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B29" s="8">
-        <v>26</v>
-      </c>
-      <c r="C29" s="9">
-        <v>2015</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="11">
-        <v>90</v>
-      </c>
-      <c r="F29" s="17">
-        <v>11</v>
+      <c r="F29" s="15">
+        <v>39</v>
       </c>
       <c r="G29" s="2">
         <f>E29*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B30" s="8">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C30" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="11">
-        <v>75</v>
-      </c>
-      <c r="F30" s="18">
-        <v>25</v>
+        <v>90</v>
+      </c>
+      <c r="F30" s="14">
+        <v>11</v>
       </c>
       <c r="G30" s="2">
         <f>E30*0.3</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="8">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C31" s="9">
         <v>2015</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E31" s="11">
-        <v>70</v>
-      </c>
-      <c r="F31" s="17">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="F31" s="14">
+        <v>34</v>
       </c>
       <c r="G31" s="2">
         <f>E31*0.3</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B32" s="8">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C32" s="9">
         <v>2015</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E32" s="11">
-        <v>75</v>
-      </c>
-      <c r="F32" s="17">
-        <v>25</v>
+        <v>80</v>
+      </c>
+      <c r="F32" s="14">
+        <v>20</v>
       </c>
       <c r="G32" s="2">
         <f>E32*0.3</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B33" s="8">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C33" s="9">
         <v>2015</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E33" s="11">
-        <v>100</v>
-      </c>
-      <c r="F33" s="18">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="F33" s="14">
+        <v>10</v>
       </c>
       <c r="G33" s="2">
         <f>E33*0.3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B34" s="8">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C34" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E34" s="11">
-        <v>80</v>
-      </c>
-      <c r="F34" s="18">
-        <v>20</v>
+        <v>90</v>
+      </c>
+      <c r="F34" s="15">
+        <v>11</v>
       </c>
       <c r="G34" s="2">
         <f>E34*0.3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B35" s="8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C35" s="9">
         <v>2015</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E35" s="11">
-        <v>100</v>
-      </c>
-      <c r="F35" s="17">
-        <v>1</v>
+        <v>80</v>
+      </c>
+      <c r="F35" s="15">
+        <v>20</v>
       </c>
       <c r="G35" s="2">
         <f>E35*0.3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C36" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E36" s="11">
-        <v>65</v>
-      </c>
-      <c r="F36" s="18">
-        <v>30</v>
+        <v>85</v>
+      </c>
+      <c r="F36" s="14">
+        <v>17</v>
       </c>
       <c r="G36" s="2">
         <f>E36*0.3</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="8">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C37" s="9">
         <v>2015</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E37" s="11">
-        <v>90</v>
-      </c>
-      <c r="F37" s="17">
-        <v>11</v>
+        <v>100</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1</v>
       </c>
       <c r="G37" s="2">
         <f>E37*0.3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B38" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C38" s="9">
         <v>2015</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E38" s="11">
-        <v>100</v>
-      </c>
-      <c r="F38" s="17">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="F38" s="14">
+        <v>11</v>
       </c>
       <c r="G38" s="2">
         <f>E38*0.3</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C39" s="9">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E39" s="11">
-        <v>65</v>
-      </c>
-      <c r="F39" s="17">
-        <v>30</v>
+        <v>70</v>
+      </c>
+      <c r="F39" s="14">
+        <v>28</v>
       </c>
       <c r="G39" s="2">
         <f>E39*0.3</f>
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="8">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C40" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="11">
-        <v>45</v>
-      </c>
-      <c r="F40" s="18">
-        <v>35</v>
+        <v>75</v>
+      </c>
+      <c r="F40" s="14">
+        <v>25</v>
       </c>
       <c r="G40" s="2">
         <f>E40*0.3</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B41" s="8">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C41" s="9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E41" s="11">
-        <v>0</v>
-      </c>
-      <c r="F41" s="18">
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="F41" s="15">
+        <v>1</v>
       </c>
       <c r="G41" s="2">
         <f>E41*0.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B42" s="8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C42" s="9">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E42" s="11">
         <v>100</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="14">
         <v>1</v>
       </c>
       <c r="G42" s="2">
@@ -1618,49 +1624,49 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C43" s="9">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E43" s="11">
-        <v>25</v>
-      </c>
-      <c r="F43" s="17">
-        <v>41</v>
+        <v>90</v>
+      </c>
+      <c r="F43" s="14">
+        <v>11</v>
       </c>
       <c r="G43" s="2">
         <f>E43*0.3</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B44" s="8">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C44" s="9">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E44" s="11">
-        <v>80</v>
-      </c>
-      <c r="F44" s="18">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1</v>
       </c>
       <c r="G44" s="2">
         <f>E44*0.3</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="17.25" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="18" x14ac:dyDescent="0.25">
       <c r="B45" s="8">
         <v>42</v>
       </c>
@@ -1673,7 +1679,7 @@
       <c r="E45" s="11">
         <v>40</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F45" s="15">
         <v>37</v>
       </c>
       <c r="G45" s="2">
@@ -1681,13 +1687,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G46" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:G3">
     <sortState ref="B4:G45">
-      <sortCondition ref="B3"/>
+      <sortCondition ref="C3:C45"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
